--- a/data/Paulina ServinA1-2025.xlsx
+++ b/data/Paulina ServinA1-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f4ef415b60d8089/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\deber1python\Recorte de archivos Anvem 2.0--2\archivos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{42664FED-F4ED-44F3-8D49-3F908E22294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF213F1-0E64-478C-A594-5FA43F1080FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="3288" windowWidth="18636" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Song" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22155" uniqueCount="135">
   <si>
     <t>ANVEM PUBLISHING</t>
   </si>
@@ -430,12 +430,6 @@
   <si>
     <t>Total Royalties</t>
   </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Net Payment</t>
-  </si>
 </sst>
 </file>
 
@@ -520,10 +514,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,10 +804,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:I14"/>
+  <dimension ref="C3:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,27 +817,27 @@
     <col min="5" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -875,7 +865,7 @@
         <v>103.63217157</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -889,15 +879,7 @@
         <v>0.86672917999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12">
-        <v>0.21183585999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -905,20 +887,6 @@
         <v>535056</v>
       </c>
       <c r="F13" s="3">
-        <v>104.49890075</v>
-      </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13">
-        <v>-2.1183586000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14">
         <v>104.49890075</v>
       </c>
     </row>
@@ -1509,7 +1477,9 @@
   </sheetPr>
   <dimension ref="C3:Q2023"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M2009" workbookViewId="0">
+      <selection activeCell="P2023" sqref="P2023"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
